--- a/public/folderResource/Format_Jadwal_SemPro_Sinkronus_Luring.xlsx
+++ b/public/folderResource/Format_Jadwal_SemPro_Sinkronus_Luring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp-7\htdocs\thesis-2022\public\folderResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224774BE-FEB2-4FA4-91E3-514C89FDFD00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4659A43B-D281-4242-A17C-93FE18791E43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,16 +30,16 @@
     <t>NPM</t>
   </si>
   <si>
-    <t>Inisial Dosen Penguji 1</t>
-  </si>
-  <si>
-    <t>Inisial Dosen Penguji 2</t>
-  </si>
-  <si>
     <t>Tanggal Seminar [DD-MM-YYYY hh:mm]</t>
   </si>
   <si>
     <t>Ruangan</t>
+  </si>
+  <si>
+    <t>Inisial Dosen Reviewer 1</t>
+  </si>
+  <si>
+    <t>Inisial Dosen Reviewer 2</t>
   </si>
 </sst>
 </file>
@@ -360,32 +360,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.36328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
